--- a/Manual Testing demo banking website/day6/IntegrationPlanning_v1.xlsx
+++ b/Manual Testing demo banking website/day6/IntegrationPlanning_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing udacity\Guru99\day6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing udacity\Guru99\Manual Testing demo banking website\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F20E7-53A8-4A33-B094-C91C6AD4AF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92833443-6686-4FF6-AA19-656937ABB754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -38,13 +38,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>15/11/2013</t>
-  </si>
-  <si>
     <t>Initial Draft</t>
-  </si>
-  <si>
-    <t>17/11/2013</t>
   </si>
   <si>
     <t>Test case executed on v1 of website. Test results updated.</t>
@@ -382,12 +376,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -395,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
@@ -481,9 +475,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -508,16 +499,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -837,10 +831,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:G100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -848,127 +842,117 @@
     <col min="6" max="6" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
-      <c r="C13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -1490,7 +1474,7 @@
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
@@ -1504,467 +1488,467 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="H3" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="D4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="G4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="G6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="G7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="G9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="G10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="D12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="G12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="G13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="D14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="G15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="D16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="G16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="D17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="G17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="D18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="G18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="D19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>23</v>
+      <c r="G19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
